--- a/data/raw_data/ManyPrimates_mp1_datasheet_Monkey Haven.xlsx
+++ b/data/raw_data/ManyPrimates_mp1_datasheet_Monkey Haven.xlsx
@@ -307,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -341,6 +341,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -29752,8 +29755,8 @@
       <c r="O16" s="11">
         <v>2.0</v>
       </c>
-      <c r="P16" s="11">
-        <v>0.0</v>
+      <c r="P16" s="13">
+        <v>1.0</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>49</v>
@@ -37477,8 +37480,8 @@
       <c r="O133" s="11">
         <v>3.0</v>
       </c>
-      <c r="P133" s="11">
-        <v>0.0</v>
+      <c r="P133" s="13">
+        <v>1.0</v>
       </c>
       <c r="Q133" s="12" t="s">
         <v>56</v>
@@ -37544,8 +37547,8 @@
       <c r="O134" s="11">
         <v>2.0</v>
       </c>
-      <c r="P134" s="11">
-        <v>0.0</v>
+      <c r="P134" s="13">
+        <v>1.0</v>
       </c>
       <c r="Q134" s="12" t="s">
         <v>56</v>
@@ -38140,8 +38143,8 @@
       <c r="O143" s="11">
         <v>1.0</v>
       </c>
-      <c r="P143" s="11">
-        <v>1.0</v>
+      <c r="P143" s="13">
+        <v>0.0</v>
       </c>
       <c r="Q143" s="12" t="s">
         <v>56</v>
